--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,82 +52,79 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>please</t>
@@ -496,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -557,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,31 +572,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+      <c r="M3">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -657,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3090128755364807</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2209302325581395</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,69 +722,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.175</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -804,16 +777,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -851,21 +824,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -877,21 +850,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.76</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7435897435897436</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7307692307692307</v>
+        <v>0.69375</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1038,16 +1011,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7123287671232876</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1085,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="K19">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
       <c r="M19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1111,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5454545454545454</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.539906103286385</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L21">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="M21">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>98</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5357142857142857</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4651162790697674</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1241,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4583333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1267,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1293,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3695652173913043</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1319,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
@@ -61,54 +61,54 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -121,10 +121,10 @@
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1802325581395349</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1587301587301587</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.828125</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7254901960784313</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7253521126760564</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7169811320754716</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.69375</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1014,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6349206349206349</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1066,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1092,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5957446808510638</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.4986945169712794</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L21">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4705882352941176</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L22">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M22">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4269662921348314</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4203389830508474</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L24">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3698630136986301</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3514644351464435</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L27">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
